--- a/data/trans_camb/P23_11_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_11_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,83</t>
+          <t>-3,2; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 0,57</t>
+          <t>-5,01; 1,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 11,02</t>
+          <t>-3,65; 4,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 7,65</t>
+          <t>-3,86; 4,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,81</t>
+          <t>-4,0; 4,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,61</t>
+          <t>-2,31; 7,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 3,59</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 2,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 5,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-54,26%</t>
+          <t>-41,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>211,82%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-30,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,25%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-30,56%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>48,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,54; 275,69</t>
+          <t>-75,8; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-91,92; 68,63</t>
+          <t>-92,29; 328,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,13; 838,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 31,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 45,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 142,53</t>
+          <t>-50,83; 196,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 53,17</t>
+          <t>-52,85; 164,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,21; 17,2</t>
+          <t>-34,88; 287,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 201,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-42,14; 165,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-48,15; 124,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-36,48; 235,0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 1,24</t>
+          <t>-7,83; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,63</t>
+          <t>-5,75; 4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,39</t>
+          <t>-7,26; 3,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,82</t>
+          <t>-8,77; -0,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,41</t>
+          <t>-6,82; 1,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,74</t>
+          <t>-6,76; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 0,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 1,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 2,42</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,43%</t>
+          <t>-30,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>-42,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,74%</t>
+          <t>-18,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>-11,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-38,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-13,48%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-7,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,74; 65,01</t>
+          <t>-87,5; 168,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,58; 168,2</t>
+          <t>-79,3; 288,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,43; 197,0</t>
+          <t>-79,16; 215,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,9; -12,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 32,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 96,68</t>
+          <t>-69,96; 3,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,7; -6,78</t>
+          <t>-54,08; 35,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 39,47</t>
+          <t>-56,81; 55,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 96,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-66,9; 6,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-50,86; 49,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-50,29; 59,45</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,3</t>
+          <t>-8,68; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,43</t>
+          <t>-7,45; 3,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 9,67</t>
+          <t>-5,27; 8,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 6,28</t>
+          <t>-2,38; 3,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,49</t>
+          <t>-2,14; 4,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,2</t>
+          <t>-2,33; 4,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 2,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 3,41</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 5,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-30,61%</t>
+          <t>-40,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-5,76%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27,95%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,71; 94,52</t>
+          <t>-94,5; 195,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,17; 148,58</t>
+          <t>-77,99; 207,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 303,5</t>
+          <t>-83,96; 425,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 117,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 121,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 199,65</t>
+          <t>-38,89; 124,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 78,27</t>
+          <t>-34,03; 128,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 96,46</t>
+          <t>-39,36; 145,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 188,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-54,34; 77,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-38,41; 114,58</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-38,33; 158,32</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-4,39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,4</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>-0,65</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,95</t>
+          <t>-1,5; 4,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,5</t>
+          <t>-1,55; 4,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,78</t>
+          <t>-7,36; -1,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,0</t>
+          <t>-5,68; 1,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 1,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 1,8</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,79%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>-56,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-27,66%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-11,71%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 37,92</t>
+          <t>-38,26; 169,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 75,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 202,41</t>
+          <t>-41,15; 186,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 1,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 24,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 85,57</t>
+          <t>-76,2; -17,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 4,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 23,84</t>
+          <t>-59,92; 28,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,68; 99,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-54,6; 23,14</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-45,26; 37,37</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 1,47</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 2,1</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 3,08</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; -0,11</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 1,08</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 1,85</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 0,04</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 0,95</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 1,69</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-11,03%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,79%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-28,28%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-9,92%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-6,45%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-22,72%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-7,42%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-51,76; 58,03</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-49,87; 80,33</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-36,46; 125,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-47,9; -1,73</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-33,43; 19,05</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-32,93; 32,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-43,75; 1,18</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-30,72; 21,79</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-23,72; 37,96</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
